--- a/References.xlsx
+++ b/References.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoadlakha/Documents/Research Work/Image Qualty Enhancement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863FF0B1-5224-E74C-BE12-A89EEA46D64C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF34FAF-F215-4448-9A93-3377B1457CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{3AF1B67D-B955-C347-B1D9-B6E7B8570E41}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -95,12 +95,45 @@
   <si>
     <t>DPED Dataset</t>
   </si>
+  <si>
+    <r>
+      <t>Loh, Y., &amp; Chan, C. (2019). Getting to Know Low-light Images with The Exclusively Dark Dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Computer Vision and Image Understanding, 178</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 30-42.</t>
+    </r>
+  </si>
+  <si>
+    <t>ExDark Dataset</t>
+  </si>
+  <si>
+    <t>C. Li, C. Guo, W. Ren, R. Cong, J. Hou, S. Kwong, D. Tao, “An Underwater Image Enhancement Benchmark Dataset and Beyond,” IEEE Trans. Image Process., vol. 29, pp.4376-4389, 2019.</t>
+  </si>
+  <si>
+    <t>UIEB Dataset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +160,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,11 +187,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,89 +572,93 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
